--- a/Fase 2/Evidencias Proyecto/1.1.4 Diccionario EDT.xlsx
+++ b/Fase 2/Evidencias Proyecto/1.1.4 Diccionario EDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo Twice\Desktop\Plataforma Web Intecil\1. Inicio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969D9854-875C-4FC4-ABA4-43CCE2A4FF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5A2403-BC54-4EFA-B221-ACD2ADA6CA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inicio" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="346">
   <si>
     <t>Codigo EDT</t>
   </si>
@@ -224,9 +224,6 @@
   </si>
   <si>
     <t>1.4.4</t>
-  </si>
-  <si>
-    <t>1.4.5</t>
   </si>
   <si>
     <t xml:space="preserve">1.5 </t>
@@ -728,9 +725,6 @@
     <t>Control de Alcance</t>
   </si>
   <si>
-    <t>Control de Costos</t>
-  </si>
-  <si>
     <t>Proceso de creación de la plataforma basado en los requerimientos y diseño previamente definidos.</t>
   </si>
   <si>
@@ -987,21 +981,6 @@
   </si>
   <si>
     <t>Implementar un proceso formal de gestión de cambios en el alcance, y revisar y aprobar cambios con todas las partes interesadas antes de su implementación.</t>
-  </si>
-  <si>
-    <t>Monitoreo y gestión de los costos del proyecto para asegurar que se mantengan dentro del presupuesto aprobado y se controlen los gastos.</t>
-  </si>
-  <si>
-    <t>Los costos están bien definidos y presupuestados, y se realiza un seguimiento regular de los gastos</t>
-  </si>
-  <si>
-    <t>Los costos pueden variar debido a cambios en el alcance, problemas imprevistos o variaciones en los precios de los recursos.</t>
-  </si>
-  <si>
-    <t>Exceder el presupuesto puede comprometer la viabilidad del proyecto y la satisfacción del cliente.</t>
-  </si>
-  <si>
-    <t>Realizar un seguimiento detallado de los costos, comparar regularmente los costos reales con el presupuesto, y tomar medidas correctivas cuando sea necesario para mantener el proyecto dentro del presupuesto.</t>
   </si>
   <si>
     <t>Todos los entregables del proyecto están definidos claramente.</t>
@@ -1594,7 +1573,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -1627,7 +1606,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>11</v>
@@ -1636,10 +1615,10 @@
         <v>12</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -1677,10 +1656,10 @@
         <v>17</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -1706,22 +1685,22 @@
         <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="E5" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="F5" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="G5" t="s">
         <v>99</v>
-      </c>
-      <c r="G5" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -1747,22 +1726,22 @@
         <v>23</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="E6" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="F6" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="G6" s="21" t="s">
         <v>104</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>105</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -1791,19 +1770,19 @@
         <v>49</v>
       </c>
       <c r="C7" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="E7" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" s="21" t="s">
+      <c r="G7" s="21" t="s">
         <v>91</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>92</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -1826,13 +1805,13 @@
     </row>
     <row r="8" spans="1:25" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>20</v>
@@ -1841,7 +1820,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>22</v>
@@ -3191,7 +3170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3259,7 +3238,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
@@ -3292,13 +3271,13 @@
         <v>27</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>29</v>
@@ -3327,25 +3306,25 @@
     </row>
     <row r="4" spans="1:25" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" t="s">
         <v>110</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="D4" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="E4" s="25" t="s">
+      <c r="F4" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="G4" s="25" t="s">
         <v>114</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>115</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -3368,25 +3347,25 @@
     </row>
     <row r="5" spans="1:25" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="D5" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="E5" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="F5" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="G5" s="25" t="s">
         <v>121</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>122</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -3409,25 +3388,25 @@
     </row>
     <row r="6" spans="1:25" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="D6" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="E6" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="F6" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="G6" s="25" t="s">
         <v>127</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>128</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -3450,25 +3429,25 @@
     </row>
     <row r="7" spans="1:25" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="D7" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="E7" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="F7" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="G7" s="25" t="s">
         <v>133</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>134</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -3491,25 +3470,25 @@
     </row>
     <row r="8" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="D8" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="E8" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="F8" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="G8" s="25" t="s">
         <v>171</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>172</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -3532,25 +3511,25 @@
     </row>
     <row r="9" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -3573,7 +3552,7 @@
     </row>
     <row r="10" spans="1:25" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>32</v>
@@ -3661,19 +3640,19 @@
         <v>46</v>
       </c>
       <c r="C12" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="E12" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="F12" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="G12" s="25" t="s">
         <v>178</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>179</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -3699,22 +3678,22 @@
         <v>45</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -3743,19 +3722,19 @@
         <v>48</v>
       </c>
       <c r="C14" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="E14" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="F14" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="G14" s="25" t="s">
         <v>183</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>184</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -3778,25 +3757,25 @@
     </row>
     <row r="15" spans="1:25" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B15" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="D15" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="F15" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="G15" s="32" t="s">
         <v>189</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>190</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -3819,25 +3798,25 @@
     </row>
     <row r="16" spans="1:25" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C16" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="D16" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="E16" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="F16" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="G16" s="32" t="s">
         <v>193</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>194</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -3860,25 +3839,25 @@
     </row>
     <row r="17" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C17" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D17" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="E17" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="F17" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="G17" s="32" t="s">
         <v>199</v>
-      </c>
-      <c r="G17" s="32" t="s">
-        <v>200</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -3901,25 +3880,25 @@
     </row>
     <row r="18" spans="1:25" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B18" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>330</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="E18" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="C18" s="35" t="s">
-        <v>337</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="E18" s="26" t="s">
+      <c r="F18" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="F18" s="29" t="s">
-        <v>205</v>
-      </c>
       <c r="G18" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -3942,13 +3921,13 @@
     </row>
     <row r="19" spans="1:25" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="E19" s="35"/>
       <c r="F19" s="32"/>
@@ -3974,13 +3953,13 @@
     </row>
     <row r="20" spans="1:25" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="B20" s="33" t="s">
         <v>335</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>342</v>
-      </c>
       <c r="C20" s="35" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
@@ -4006,13 +3985,13 @@
     </row>
     <row r="21" spans="1:25" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B21" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="B21" s="33" t="s">
-        <v>343</v>
-      </c>
       <c r="C21" s="33" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
@@ -4020,48 +3999,48 @@
     </row>
     <row r="22" spans="1:25" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="E22" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="F22" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="G22" s="32" t="s">
         <v>210</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C23" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="D23" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="E23" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="F23" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="G23" s="32" t="s">
         <v>215</v>
-      </c>
-      <c r="G23" s="32" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5133,7 +5112,7 @@
         <v>50</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -5160,347 +5139,347 @@
     </row>
     <row r="3" spans="1:25" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>138</v>
-      </c>
       <c r="C3" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="E3" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="F3" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="G3" s="29" t="s">
         <v>232</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>140</v>
-      </c>
       <c r="C4" s="29" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>142</v>
-      </c>
       <c r="C5" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="D5" s="29" t="s">
-        <v>239</v>
-      </c>
       <c r="E5" s="29" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>144</v>
-      </c>
       <c r="C6" s="32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>146</v>
-      </c>
       <c r="C7" s="32" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>148</v>
-      </c>
       <c r="C8" s="29" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>150</v>
-      </c>
       <c r="C9" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="E9" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="F9" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="G9" s="32" t="s">
         <v>258</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>152</v>
-      </c>
       <c r="C10" s="29" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>154</v>
-      </c>
       <c r="C11" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="E11" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="F11" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="G11" s="32" t="s">
         <v>268</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>156</v>
-      </c>
       <c r="C12" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="E12" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="F12" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="G12" s="32" t="s">
         <v>273</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>158</v>
-      </c>
       <c r="C13" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="E13" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="F13" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="G13" s="32" t="s">
         <v>278</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>160</v>
-      </c>
       <c r="C14" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="E14" s="29" t="s">
         <v>281</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="F14" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="G14" s="32" t="s">
         <v>283</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>284</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>162</v>
-      </c>
       <c r="C15" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="E15" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="F15" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="G15" s="32" t="s">
         <v>288</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>289</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>164</v>
-      </c>
       <c r="C16" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="E16" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="F16" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="G16" s="32" t="s">
         <v>293</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>166</v>
-      </c>
       <c r="C17" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E17" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="F17" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="G17" s="32" t="s">
         <v>297</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>298</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>300</v>
-      </c>
-      <c r="G17" s="32" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6428,13 +6407,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Y1000"/>
+  <dimension ref="A1:Y999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6569,22 +6548,22 @@
         <v>55</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C4" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="E4" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="F4" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="G4" s="21" t="s">
         <v>303</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>305</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -6610,22 +6589,22 @@
         <v>62</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C5" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="F5" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="G5" s="21" t="s">
         <v>308</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>310</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -6651,22 +6630,22 @@
         <v>63</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>313</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>315</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -6687,28 +6666,14 @@
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
     </row>
-    <row r="7" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>320</v>
-      </c>
+    <row r="7" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -6728,9 +6693,9 @@
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
     </row>
-    <row r="8" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="6"/>
+    <row r="8" spans="1:25" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -6755,9 +6720,9 @@
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
     </row>
-    <row r="9" spans="1:25" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
+    <row r="9" spans="1:25" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -6782,7 +6747,7 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
     </row>
-    <row r="10" spans="1:25" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -6864,8 +6829,8 @@
       <c r="Y12" s="6"/>
     </row>
     <row r="13" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -6891,8 +6856,8 @@
       <c r="Y13" s="6"/>
     </row>
     <row r="14" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -7052,7 +7017,7 @@
       <c r="X19" s="6"/>
       <c r="Y19" s="6"/>
     </row>
-    <row r="20" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -7080,31 +7045,7 @@
       <c r="Y20" s="6"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
+      <c r="A21" s="11"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
@@ -7133,9 +7074,7 @@
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
     </row>
-    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
-    </row>
+    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8104,7 +8043,6 @@
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -8189,13 +8127,13 @@
     </row>
     <row r="2" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="C2" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -8222,25 +8160,25 @@
     </row>
     <row r="3" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>74</v>
-      </c>
       <c r="G3" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -8263,25 +8201,25 @@
     </row>
     <row r="4" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="E4" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -8304,25 +8242,25 @@
     </row>
     <row r="5" spans="1:25" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>70</v>
-      </c>
       <c r="D5" s="21" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
